--- a/data/Perp/Figure2_SourceData.xlsx
+++ b/data/Perp/Figure2_SourceData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anthony\Dropbox\Research\Alaska SeaLife Center 2018-2020\Paper 2\Perpendicual Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anthony\Documents\GitHub\Lapsansky_Zatz_Tobalske_eLife_2020\data\Perp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DBFE01-F5ED-44A6-AEC7-825681C40611}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A933D3-CA63-4098-83D4-DEBD7687C72C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-360" yWindow="94" windowWidth="22183" windowHeight="12583" xr2:uid="{C50286E2-D23A-4C93-BAB6-F0AAB17B13AA}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C50286E2-D23A-4C93-BAB6-F0AAB17B13AA}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -890,8 +890,8 @@
   <dimension ref="A1:N73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K73" sqref="K73"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -965,19 +965,19 @@
         <v>25</v>
       </c>
       <c r="G2" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H2" s="2">
-        <v>0.16599777589878542</v>
+        <v>0.1521685495120505</v>
       </c>
       <c r="I2" s="2">
-        <v>2.7800298413557939E-2</v>
+        <v>2.4805067759196386E-2</v>
       </c>
       <c r="J2" s="2">
-        <v>0.13819747748522748</v>
+        <v>0.12736348175285411</v>
       </c>
       <c r="K2" s="2">
-        <v>0.19379807431234336</v>
+        <v>0.17697361727124689</v>
       </c>
       <c r="N2" s="12"/>
     </row>
@@ -1386,19 +1386,19 @@
         <v>25</v>
       </c>
       <c r="G14" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H14" s="2">
-        <v>0.16223434232534817</v>
+        <v>0.13748818568276441</v>
       </c>
       <c r="I14" s="2">
-        <v>3.5712314063116306E-2</v>
+        <v>3.0112197645899275E-2</v>
       </c>
       <c r="J14" s="2">
-        <v>0.12652202826223186</v>
+        <v>0.10737598803686514</v>
       </c>
       <c r="K14" s="2">
-        <v>0.19794665638846448</v>
+        <v>0.1676003833286637</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
